--- a/travel_time_ar.xlsx
+++ b/travel_time_ar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="56">
   <si>
     <t>fecha</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>11:50:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
   </si>
   <si>
     <t>Las Olimpiadas - Gómez Morín</t>
@@ -540,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F507"/>
+  <dimension ref="A1:F519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -594,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>2.6</v>
@@ -614,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>6.6</v>
@@ -634,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>6.7</v>
@@ -654,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>9.5</v>
@@ -674,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>9.5</v>
@@ -694,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>11.9</v>
@@ -714,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>11.8</v>
@@ -734,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -754,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -774,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>2.6</v>
@@ -794,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>2.6</v>
@@ -814,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>6.6</v>
@@ -834,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>6.7</v>
@@ -854,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>9.5</v>
@@ -874,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>9.5</v>
@@ -894,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>11.9</v>
@@ -914,7 +917,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>11.8</v>
@@ -934,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -954,7 +957,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -974,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>2.6</v>
@@ -994,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>2.6</v>
@@ -1014,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>6.6</v>
@@ -1034,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>6.7</v>
@@ -1054,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <v>9.5</v>
@@ -1074,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>9.5</v>
@@ -1094,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>11.9</v>
@@ -1114,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>11.8</v>
@@ -1134,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -1154,7 +1157,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -1174,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32">
         <v>2.6</v>
@@ -1194,7 +1197,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>2.6</v>
@@ -1214,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>6.6</v>
@@ -1234,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35">
         <v>6.7</v>
@@ -1254,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>9.5</v>
@@ -1274,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>9.5</v>
@@ -1294,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>11.9</v>
@@ -1314,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>11.8</v>
@@ -1334,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -1354,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -1374,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42">
         <v>2.6</v>
@@ -1394,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D43">
         <v>2.6</v>
@@ -1414,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44">
         <v>6.6</v>
@@ -1434,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D45">
         <v>6.7</v>
@@ -1454,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>9.5</v>
@@ -1474,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47">
         <v>9.5</v>
@@ -1494,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>11.9</v>
@@ -1514,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <v>11.8</v>
@@ -1534,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -1554,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -1574,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D52">
         <v>2.6</v>
@@ -1594,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D53">
         <v>2.6</v>
@@ -1614,7 +1617,7 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D54">
         <v>6.6</v>
@@ -1634,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D55">
         <v>6.7</v>
@@ -1654,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D56">
         <v>9.5</v>
@@ -1674,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D57">
         <v>9.5</v>
@@ -1694,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D58">
         <v>11.9</v>
@@ -1714,7 +1717,7 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D59">
         <v>11.8</v>
@@ -1734,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -1754,7 +1757,7 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -1774,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D62">
         <v>2.6</v>
@@ -1794,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <v>2.6</v>
@@ -1814,7 +1817,7 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D64">
         <v>6.6</v>
@@ -1834,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D65">
         <v>6.7</v>
@@ -1854,7 +1857,7 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D66">
         <v>9.5</v>
@@ -1874,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D67">
         <v>9.5</v>
@@ -1894,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D68">
         <v>11.9</v>
@@ -1914,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D69">
         <v>11.8</v>
@@ -1934,7 +1937,7 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -1954,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -1974,7 +1977,7 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D72">
         <v>2.6</v>
@@ -1994,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D73">
         <v>2.6</v>
@@ -2014,7 +2017,7 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D74">
         <v>6.6</v>
@@ -2034,7 +2037,7 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D75">
         <v>6.7</v>
@@ -2054,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D76">
         <v>9.5</v>
@@ -2074,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D77">
         <v>9.5</v>
@@ -2094,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D78">
         <v>11.9</v>
@@ -2114,7 +2117,7 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D79">
         <v>11.8</v>
@@ -2134,7 +2137,7 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -2154,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -2174,7 +2177,7 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D82">
         <v>2.6</v>
@@ -2194,7 +2197,7 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D83">
         <v>2.6</v>
@@ -2214,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D84">
         <v>6.6</v>
@@ -2234,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D85">
         <v>6.7</v>
@@ -2254,7 +2257,7 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D86">
         <v>9.5</v>
@@ -2274,7 +2277,7 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D87">
         <v>9.5</v>
@@ -2294,7 +2297,7 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D88">
         <v>11.9</v>
@@ -2314,7 +2317,7 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D89">
         <v>11.8</v>
@@ -2334,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -2354,7 +2357,7 @@
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -2374,7 +2377,7 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D92">
         <v>2.6</v>
@@ -2394,7 +2397,7 @@
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D93">
         <v>2.6</v>
@@ -2414,7 +2417,7 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D94">
         <v>6.6</v>
@@ -2434,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D95">
         <v>6.7</v>
@@ -2454,7 +2457,7 @@
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D96">
         <v>9.5</v>
@@ -2474,7 +2477,7 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D97">
         <v>9.5</v>
@@ -2494,7 +2497,7 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D98">
         <v>11.9</v>
@@ -2514,7 +2517,7 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D99">
         <v>11.8</v>
@@ -2534,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -2554,7 +2557,7 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2574,7 +2577,7 @@
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D102">
         <v>2.6</v>
@@ -2594,7 +2597,7 @@
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D103">
         <v>2.6</v>
@@ -2614,7 +2617,7 @@
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D104">
         <v>6.6</v>
@@ -2634,7 +2637,7 @@
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D105">
         <v>6.7</v>
@@ -2654,7 +2657,7 @@
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D106">
         <v>9.5</v>
@@ -2674,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D107">
         <v>9.5</v>
@@ -2694,7 +2697,7 @@
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D108">
         <v>11.9</v>
@@ -2714,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D109">
         <v>11.8</v>
@@ -2734,7 +2737,7 @@
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -2754,7 +2757,7 @@
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -2774,7 +2777,7 @@
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D112">
         <v>2.6</v>
@@ -2794,7 +2797,7 @@
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D113">
         <v>2.6</v>
@@ -2814,7 +2817,7 @@
         <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D114">
         <v>6.6</v>
@@ -2834,7 +2837,7 @@
         <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D115">
         <v>6.7</v>
@@ -2854,7 +2857,7 @@
         <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D116">
         <v>9.5</v>
@@ -2874,7 +2877,7 @@
         <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D117">
         <v>9.5</v>
@@ -2894,7 +2897,7 @@
         <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D118">
         <v>11.9</v>
@@ -2914,7 +2917,7 @@
         <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D119">
         <v>11.8</v>
@@ -2934,7 +2937,7 @@
         <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D120">
         <v>4</v>
@@ -2954,7 +2957,7 @@
         <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D121">
         <v>4</v>
@@ -2974,7 +2977,7 @@
         <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D122">
         <v>2.6</v>
@@ -2994,7 +2997,7 @@
         <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D123">
         <v>2.6</v>
@@ -3014,7 +3017,7 @@
         <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D124">
         <v>6.6</v>
@@ -3034,7 +3037,7 @@
         <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D125">
         <v>6.7</v>
@@ -3054,7 +3057,7 @@
         <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D126">
         <v>9.5</v>
@@ -3074,7 +3077,7 @@
         <v>18</v>
       </c>
       <c r="C127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D127">
         <v>9.5</v>
@@ -3094,7 +3097,7 @@
         <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D128">
         <v>11.9</v>
@@ -3114,7 +3117,7 @@
         <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D129">
         <v>11.8</v>
@@ -3134,7 +3137,7 @@
         <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D130">
         <v>4</v>
@@ -3154,7 +3157,7 @@
         <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D131">
         <v>4</v>
@@ -3174,7 +3177,7 @@
         <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D132">
         <v>2.6</v>
@@ -3194,7 +3197,7 @@
         <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D133">
         <v>2.6</v>
@@ -3214,7 +3217,7 @@
         <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D134">
         <v>6.6</v>
@@ -3234,7 +3237,7 @@
         <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D135">
         <v>6.7</v>
@@ -3254,7 +3257,7 @@
         <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D136">
         <v>9.5</v>
@@ -3274,7 +3277,7 @@
         <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D137">
         <v>9.5</v>
@@ -3294,7 +3297,7 @@
         <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D138">
         <v>11.9</v>
@@ -3314,7 +3317,7 @@
         <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D139">
         <v>11.8</v>
@@ -3334,7 +3337,7 @@
         <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D140">
         <v>4</v>
@@ -3354,7 +3357,7 @@
         <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D141">
         <v>4</v>
@@ -3374,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D142">
         <v>2.6</v>
@@ -3394,7 +3397,7 @@
         <v>20</v>
       </c>
       <c r="C143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D143">
         <v>2.6</v>
@@ -3414,7 +3417,7 @@
         <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D144">
         <v>6.6</v>
@@ -3434,7 +3437,7 @@
         <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D145">
         <v>6.7</v>
@@ -3454,7 +3457,7 @@
         <v>20</v>
       </c>
       <c r="C146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D146">
         <v>9.5</v>
@@ -3474,7 +3477,7 @@
         <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D147">
         <v>9.5</v>
@@ -3494,7 +3497,7 @@
         <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D148">
         <v>11.9</v>
@@ -3514,7 +3517,7 @@
         <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D149">
         <v>11.8</v>
@@ -3534,7 +3537,7 @@
         <v>20</v>
       </c>
       <c r="C150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D150">
         <v>4</v>
@@ -3554,7 +3557,7 @@
         <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D151">
         <v>4</v>
@@ -3574,7 +3577,7 @@
         <v>21</v>
       </c>
       <c r="C152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D152">
         <v>2.6</v>
@@ -3594,7 +3597,7 @@
         <v>21</v>
       </c>
       <c r="C153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D153">
         <v>2.6</v>
@@ -3614,7 +3617,7 @@
         <v>21</v>
       </c>
       <c r="C154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D154">
         <v>6.6</v>
@@ -3634,7 +3637,7 @@
         <v>21</v>
       </c>
       <c r="C155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D155">
         <v>6.7</v>
@@ -3654,7 +3657,7 @@
         <v>21</v>
       </c>
       <c r="C156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D156">
         <v>9.5</v>
@@ -3674,7 +3677,7 @@
         <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D157">
         <v>9.5</v>
@@ -3694,7 +3697,7 @@
         <v>21</v>
       </c>
       <c r="C158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D158">
         <v>11.9</v>
@@ -3714,7 +3717,7 @@
         <v>21</v>
       </c>
       <c r="C159" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D159">
         <v>11.8</v>
@@ -3734,7 +3737,7 @@
         <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D160">
         <v>4</v>
@@ -3754,7 +3757,7 @@
         <v>21</v>
       </c>
       <c r="C161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D161">
         <v>4</v>
@@ -3774,7 +3777,7 @@
         <v>22</v>
       </c>
       <c r="C162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D162">
         <v>2.6</v>
@@ -3794,7 +3797,7 @@
         <v>22</v>
       </c>
       <c r="C163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D163">
         <v>2.6</v>
@@ -3814,7 +3817,7 @@
         <v>22</v>
       </c>
       <c r="C164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D164">
         <v>6.6</v>
@@ -3834,7 +3837,7 @@
         <v>22</v>
       </c>
       <c r="C165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D165">
         <v>6.7</v>
@@ -3854,7 +3857,7 @@
         <v>22</v>
       </c>
       <c r="C166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D166">
         <v>9.5</v>
@@ -3874,7 +3877,7 @@
         <v>22</v>
       </c>
       <c r="C167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D167">
         <v>9.5</v>
@@ -3894,7 +3897,7 @@
         <v>22</v>
       </c>
       <c r="C168" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D168">
         <v>11.9</v>
@@ -3914,7 +3917,7 @@
         <v>22</v>
       </c>
       <c r="C169" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D169">
         <v>11.8</v>
@@ -3934,7 +3937,7 @@
         <v>22</v>
       </c>
       <c r="C170" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -3954,7 +3957,7 @@
         <v>22</v>
       </c>
       <c r="C171" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D171">
         <v>4</v>
@@ -3974,7 +3977,7 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D172">
         <v>2.6</v>
@@ -3994,7 +3997,7 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D173">
         <v>2.6</v>
@@ -4014,7 +4017,7 @@
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D174">
         <v>6.6</v>
@@ -4034,7 +4037,7 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D175">
         <v>6.7</v>
@@ -4054,7 +4057,7 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D176">
         <v>9.5</v>
@@ -4074,7 +4077,7 @@
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D177">
         <v>9.5</v>
@@ -4094,7 +4097,7 @@
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D178">
         <v>11.9</v>
@@ -4114,7 +4117,7 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D179">
         <v>11.8</v>
@@ -4134,7 +4137,7 @@
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D180">
         <v>4</v>
@@ -4154,7 +4157,7 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D181">
         <v>4</v>
@@ -4174,7 +4177,7 @@
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D182">
         <v>2.6</v>
@@ -4194,7 +4197,7 @@
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D183">
         <v>2.6</v>
@@ -4214,7 +4217,7 @@
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D184">
         <v>6.6</v>
@@ -4234,7 +4237,7 @@
         <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D185">
         <v>6.7</v>
@@ -4254,7 +4257,7 @@
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D186">
         <v>9.5</v>
@@ -4274,7 +4277,7 @@
         <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D187">
         <v>9.5</v>
@@ -4294,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D188">
         <v>11.9</v>
@@ -4314,7 +4317,7 @@
         <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D189">
         <v>11.8</v>
@@ -4334,7 +4337,7 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D190">
         <v>4</v>
@@ -4354,7 +4357,7 @@
         <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D191">
         <v>4</v>
@@ -4374,7 +4377,7 @@
         <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D192">
         <v>2.6</v>
@@ -4394,7 +4397,7 @@
         <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D193">
         <v>2.6</v>
@@ -4414,7 +4417,7 @@
         <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D194">
         <v>6.6</v>
@@ -4434,7 +4437,7 @@
         <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D195">
         <v>6.7</v>
@@ -4454,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D196">
         <v>9.5</v>
@@ -4474,7 +4477,7 @@
         <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D197">
         <v>9.5</v>
@@ -4494,7 +4497,7 @@
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D198">
         <v>11.9</v>
@@ -4514,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D199">
         <v>11.8</v>
@@ -4534,7 +4537,7 @@
         <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D200">
         <v>4</v>
@@ -4554,7 +4557,7 @@
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D201">
         <v>4</v>
@@ -4574,7 +4577,7 @@
         <v>23</v>
       </c>
       <c r="C202" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D202">
         <v>2.6</v>
@@ -4594,7 +4597,7 @@
         <v>23</v>
       </c>
       <c r="C203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D203">
         <v>2.6</v>
@@ -4614,7 +4617,7 @@
         <v>23</v>
       </c>
       <c r="C204" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D204">
         <v>6.6</v>
@@ -4634,7 +4637,7 @@
         <v>23</v>
       </c>
       <c r="C205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D205">
         <v>6.7</v>
@@ -4654,7 +4657,7 @@
         <v>23</v>
       </c>
       <c r="C206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D206">
         <v>9.5</v>
@@ -4674,7 +4677,7 @@
         <v>23</v>
       </c>
       <c r="C207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D207">
         <v>9.5</v>
@@ -4694,7 +4697,7 @@
         <v>23</v>
       </c>
       <c r="C208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D208">
         <v>11.9</v>
@@ -4714,7 +4717,7 @@
         <v>23</v>
       </c>
       <c r="C209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D209">
         <v>11.8</v>
@@ -4734,7 +4737,7 @@
         <v>23</v>
       </c>
       <c r="C210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D210">
         <v>4</v>
@@ -4754,7 +4757,7 @@
         <v>23</v>
       </c>
       <c r="C211" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D211">
         <v>4</v>
@@ -4774,7 +4777,7 @@
         <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D212">
         <v>2.6</v>
@@ -4794,7 +4797,7 @@
         <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D213">
         <v>2.6</v>
@@ -4814,7 +4817,7 @@
         <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D214">
         <v>6.6</v>
@@ -4834,7 +4837,7 @@
         <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D215">
         <v>6.7</v>
@@ -4854,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D216">
         <v>9.5</v>
@@ -4874,7 +4877,7 @@
         <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D217">
         <v>9.5</v>
@@ -4894,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D218">
         <v>11.9</v>
@@ -4914,7 +4917,7 @@
         <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D219">
         <v>11.8</v>
@@ -4934,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D220">
         <v>4</v>
@@ -4954,7 +4957,7 @@
         <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D221">
         <v>4</v>
@@ -4974,7 +4977,7 @@
         <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D222">
         <v>2.6</v>
@@ -4994,7 +4997,7 @@
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D223">
         <v>2.6</v>
@@ -5014,7 +5017,7 @@
         <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D224">
         <v>6.6</v>
@@ -5034,7 +5037,7 @@
         <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D225">
         <v>6.7</v>
@@ -5054,7 +5057,7 @@
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D226">
         <v>9.5</v>
@@ -5074,7 +5077,7 @@
         <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D227">
         <v>9.5</v>
@@ -5094,7 +5097,7 @@
         <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D228">
         <v>11.9</v>
@@ -5114,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D229">
         <v>11.8</v>
@@ -5134,7 +5137,7 @@
         <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D230">
         <v>4</v>
@@ -5154,7 +5157,7 @@
         <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D231">
         <v>4</v>
@@ -5174,7 +5177,7 @@
         <v>14</v>
       </c>
       <c r="C232" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D232">
         <v>2.6</v>
@@ -5194,7 +5197,7 @@
         <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D233">
         <v>2.6</v>
@@ -5214,7 +5217,7 @@
         <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D234">
         <v>6.6</v>
@@ -5234,7 +5237,7 @@
         <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D235">
         <v>6.7</v>
@@ -5254,7 +5257,7 @@
         <v>14</v>
       </c>
       <c r="C236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D236">
         <v>9.5</v>
@@ -5274,7 +5277,7 @@
         <v>14</v>
       </c>
       <c r="C237" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D237">
         <v>9.5</v>
@@ -5294,7 +5297,7 @@
         <v>14</v>
       </c>
       <c r="C238" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D238">
         <v>11.9</v>
@@ -5314,7 +5317,7 @@
         <v>14</v>
       </c>
       <c r="C239" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D239">
         <v>11.8</v>
@@ -5334,7 +5337,7 @@
         <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D240">
         <v>4</v>
@@ -5354,7 +5357,7 @@
         <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D241">
         <v>4</v>
@@ -5374,7 +5377,7 @@
         <v>15</v>
       </c>
       <c r="C242" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D242">
         <v>2.6</v>
@@ -5394,7 +5397,7 @@
         <v>15</v>
       </c>
       <c r="C243" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D243">
         <v>2.6</v>
@@ -5414,7 +5417,7 @@
         <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D244">
         <v>6.6</v>
@@ -5434,7 +5437,7 @@
         <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D245">
         <v>6.7</v>
@@ -5454,7 +5457,7 @@
         <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D246">
         <v>9.5</v>
@@ -5474,7 +5477,7 @@
         <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D247">
         <v>9.5</v>
@@ -5494,7 +5497,7 @@
         <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D248">
         <v>11.9</v>
@@ -5514,7 +5517,7 @@
         <v>15</v>
       </c>
       <c r="C249" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D249">
         <v>11.8</v>
@@ -5534,7 +5537,7 @@
         <v>15</v>
       </c>
       <c r="C250" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D250">
         <v>4</v>
@@ -5554,7 +5557,7 @@
         <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D251">
         <v>4</v>
@@ -5574,7 +5577,7 @@
         <v>16</v>
       </c>
       <c r="C252" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D252">
         <v>2.6</v>
@@ -5594,7 +5597,7 @@
         <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D253">
         <v>2.6</v>
@@ -5614,7 +5617,7 @@
         <v>16</v>
       </c>
       <c r="C254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D254">
         <v>6.6</v>
@@ -5634,7 +5637,7 @@
         <v>16</v>
       </c>
       <c r="C255" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D255">
         <v>6.7</v>
@@ -5654,7 +5657,7 @@
         <v>16</v>
       </c>
       <c r="C256" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D256">
         <v>9.5</v>
@@ -5674,7 +5677,7 @@
         <v>16</v>
       </c>
       <c r="C257" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D257">
         <v>9.5</v>
@@ -5694,7 +5697,7 @@
         <v>16</v>
       </c>
       <c r="C258" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D258">
         <v>11.9</v>
@@ -5714,7 +5717,7 @@
         <v>16</v>
       </c>
       <c r="C259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D259">
         <v>11.8</v>
@@ -5734,7 +5737,7 @@
         <v>16</v>
       </c>
       <c r="C260" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D260">
         <v>4</v>
@@ -5754,7 +5757,7 @@
         <v>16</v>
       </c>
       <c r="C261" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D261">
         <v>4</v>
@@ -5774,7 +5777,7 @@
         <v>24</v>
       </c>
       <c r="C262" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D262">
         <v>2.6</v>
@@ -5794,7 +5797,7 @@
         <v>24</v>
       </c>
       <c r="C263" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D263">
         <v>2.6</v>
@@ -5814,7 +5817,7 @@
         <v>24</v>
       </c>
       <c r="C264" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D264">
         <v>6.6</v>
@@ -5834,7 +5837,7 @@
         <v>24</v>
       </c>
       <c r="C265" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D265">
         <v>6.7</v>
@@ -5854,7 +5857,7 @@
         <v>24</v>
       </c>
       <c r="C266" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D266">
         <v>9.5</v>
@@ -5874,7 +5877,7 @@
         <v>24</v>
       </c>
       <c r="C267" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D267">
         <v>9.5</v>
@@ -5894,7 +5897,7 @@
         <v>24</v>
       </c>
       <c r="C268" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D268">
         <v>11.9</v>
@@ -5914,7 +5917,7 @@
         <v>24</v>
       </c>
       <c r="C269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D269">
         <v>11.8</v>
@@ -5934,7 +5937,7 @@
         <v>24</v>
       </c>
       <c r="C270" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D270">
         <v>4</v>
@@ -5954,7 +5957,7 @@
         <v>24</v>
       </c>
       <c r="C271" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D271">
         <v>4</v>
@@ -5974,7 +5977,7 @@
         <v>25</v>
       </c>
       <c r="C272" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D272">
         <v>2.6</v>
@@ -5994,7 +5997,7 @@
         <v>25</v>
       </c>
       <c r="C273" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D273">
         <v>2.6</v>
@@ -6014,7 +6017,7 @@
         <v>25</v>
       </c>
       <c r="C274" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D274">
         <v>6.6</v>
@@ -6034,7 +6037,7 @@
         <v>25</v>
       </c>
       <c r="C275" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D275">
         <v>6.7</v>
@@ -6054,7 +6057,7 @@
         <v>25</v>
       </c>
       <c r="C276" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D276">
         <v>9.5</v>
@@ -6074,7 +6077,7 @@
         <v>25</v>
       </c>
       <c r="C277" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D277">
         <v>9.5</v>
@@ -6094,7 +6097,7 @@
         <v>25</v>
       </c>
       <c r="C278" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D278">
         <v>11.9</v>
@@ -6114,7 +6117,7 @@
         <v>25</v>
       </c>
       <c r="C279" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D279">
         <v>11.8</v>
@@ -6134,7 +6137,7 @@
         <v>25</v>
       </c>
       <c r="C280" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D280">
         <v>4</v>
@@ -6154,7 +6157,7 @@
         <v>25</v>
       </c>
       <c r="C281" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D281">
         <v>4</v>
@@ -6174,7 +6177,7 @@
         <v>26</v>
       </c>
       <c r="C282" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D282">
         <v>2.6</v>
@@ -6194,7 +6197,7 @@
         <v>26</v>
       </c>
       <c r="C283" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D283">
         <v>2.6</v>
@@ -6214,7 +6217,7 @@
         <v>26</v>
       </c>
       <c r="C284" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D284">
         <v>6.6</v>
@@ -6234,7 +6237,7 @@
         <v>26</v>
       </c>
       <c r="C285" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D285">
         <v>6.7</v>
@@ -6254,7 +6257,7 @@
         <v>26</v>
       </c>
       <c r="C286" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D286">
         <v>9.5</v>
@@ -6274,7 +6277,7 @@
         <v>26</v>
       </c>
       <c r="C287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D287">
         <v>9.5</v>
@@ -6294,7 +6297,7 @@
         <v>26</v>
       </c>
       <c r="C288" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D288">
         <v>11.9</v>
@@ -6314,7 +6317,7 @@
         <v>26</v>
       </c>
       <c r="C289" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D289">
         <v>11.8</v>
@@ -6334,7 +6337,7 @@
         <v>26</v>
       </c>
       <c r="C290" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D290">
         <v>4</v>
@@ -6354,7 +6357,7 @@
         <v>26</v>
       </c>
       <c r="C291" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D291">
         <v>4</v>
@@ -6374,7 +6377,7 @@
         <v>27</v>
       </c>
       <c r="C292" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D292">
         <v>2.6</v>
@@ -6394,7 +6397,7 @@
         <v>27</v>
       </c>
       <c r="C293" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D293">
         <v>2.6</v>
@@ -6414,7 +6417,7 @@
         <v>27</v>
       </c>
       <c r="C294" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D294">
         <v>6.6</v>
@@ -6434,7 +6437,7 @@
         <v>27</v>
       </c>
       <c r="C295" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D295">
         <v>6.7</v>
@@ -6454,7 +6457,7 @@
         <v>27</v>
       </c>
       <c r="C296" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D296">
         <v>9.5</v>
@@ -6474,7 +6477,7 @@
         <v>27</v>
       </c>
       <c r="C297" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D297">
         <v>9.5</v>
@@ -6494,7 +6497,7 @@
         <v>27</v>
       </c>
       <c r="C298" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D298">
         <v>11.9</v>
@@ -6514,7 +6517,7 @@
         <v>27</v>
       </c>
       <c r="C299" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D299">
         <v>11.8</v>
@@ -6534,7 +6537,7 @@
         <v>27</v>
       </c>
       <c r="C300" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D300">
         <v>4</v>
@@ -6554,7 +6557,7 @@
         <v>27</v>
       </c>
       <c r="C301" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D301">
         <v>4</v>
@@ -6574,7 +6577,7 @@
         <v>28</v>
       </c>
       <c r="C302" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D302">
         <v>2.6</v>
@@ -6594,7 +6597,7 @@
         <v>28</v>
       </c>
       <c r="C303" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D303">
         <v>2.6</v>
@@ -6614,7 +6617,7 @@
         <v>28</v>
       </c>
       <c r="C304" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D304">
         <v>6.6</v>
@@ -6634,7 +6637,7 @@
         <v>28</v>
       </c>
       <c r="C305" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D305">
         <v>6.7</v>
@@ -6654,7 +6657,7 @@
         <v>28</v>
       </c>
       <c r="C306" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D306">
         <v>9.5</v>
@@ -6674,7 +6677,7 @@
         <v>28</v>
       </c>
       <c r="C307" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D307">
         <v>9.5</v>
@@ -6694,7 +6697,7 @@
         <v>28</v>
       </c>
       <c r="C308" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D308">
         <v>11.9</v>
@@ -6714,7 +6717,7 @@
         <v>28</v>
       </c>
       <c r="C309" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D309">
         <v>11.8</v>
@@ -6734,7 +6737,7 @@
         <v>28</v>
       </c>
       <c r="C310" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D310">
         <v>4</v>
@@ -6754,7 +6757,7 @@
         <v>28</v>
       </c>
       <c r="C311" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D311">
         <v>4</v>
@@ -6774,7 +6777,7 @@
         <v>29</v>
       </c>
       <c r="C312" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D312">
         <v>2.6</v>
@@ -6794,7 +6797,7 @@
         <v>29</v>
       </c>
       <c r="C313" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D313">
         <v>2.6</v>
@@ -6814,7 +6817,7 @@
         <v>29</v>
       </c>
       <c r="C314" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D314">
         <v>6.6</v>
@@ -6834,7 +6837,7 @@
         <v>29</v>
       </c>
       <c r="C315" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D315">
         <v>6.7</v>
@@ -6854,7 +6857,7 @@
         <v>29</v>
       </c>
       <c r="C316" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D316">
         <v>9.5</v>
@@ -6874,7 +6877,7 @@
         <v>29</v>
       </c>
       <c r="C317" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D317">
         <v>9.5</v>
@@ -6894,7 +6897,7 @@
         <v>29</v>
       </c>
       <c r="C318" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D318">
         <v>11.9</v>
@@ -6914,7 +6917,7 @@
         <v>29</v>
       </c>
       <c r="C319" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D319">
         <v>11.8</v>
@@ -6934,7 +6937,7 @@
         <v>29</v>
       </c>
       <c r="C320" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D320">
         <v>4</v>
@@ -6954,7 +6957,7 @@
         <v>29</v>
       </c>
       <c r="C321" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D321">
         <v>4</v>
@@ -6974,7 +6977,7 @@
         <v>30</v>
       </c>
       <c r="C322" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D322">
         <v>2.6</v>
@@ -6994,7 +6997,7 @@
         <v>30</v>
       </c>
       <c r="C323" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D323">
         <v>2.6</v>
@@ -7014,7 +7017,7 @@
         <v>30</v>
       </c>
       <c r="C324" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D324">
         <v>6.6</v>
@@ -7034,7 +7037,7 @@
         <v>30</v>
       </c>
       <c r="C325" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D325">
         <v>6.7</v>
@@ -7054,7 +7057,7 @@
         <v>30</v>
       </c>
       <c r="C326" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D326">
         <v>9.5</v>
@@ -7074,7 +7077,7 @@
         <v>30</v>
       </c>
       <c r="C327" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D327">
         <v>9.5</v>
@@ -7094,7 +7097,7 @@
         <v>30</v>
       </c>
       <c r="C328" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D328">
         <v>11.9</v>
@@ -7114,7 +7117,7 @@
         <v>30</v>
       </c>
       <c r="C329" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D329">
         <v>11.8</v>
@@ -7134,7 +7137,7 @@
         <v>30</v>
       </c>
       <c r="C330" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D330">
         <v>4</v>
@@ -7154,7 +7157,7 @@
         <v>30</v>
       </c>
       <c r="C331" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D331">
         <v>4</v>
@@ -7174,7 +7177,7 @@
         <v>9</v>
       </c>
       <c r="C332" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D332">
         <v>2.6</v>
@@ -7194,7 +7197,7 @@
         <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D333">
         <v>2.6</v>
@@ -7214,7 +7217,7 @@
         <v>9</v>
       </c>
       <c r="C334" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D334">
         <v>6.6</v>
@@ -7234,7 +7237,7 @@
         <v>9</v>
       </c>
       <c r="C335" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D335">
         <v>6.7</v>
@@ -7254,7 +7257,7 @@
         <v>9</v>
       </c>
       <c r="C336" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D336">
         <v>9.5</v>
@@ -7274,7 +7277,7 @@
         <v>9</v>
       </c>
       <c r="C337" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D337">
         <v>9.5</v>
@@ -7294,7 +7297,7 @@
         <v>9</v>
       </c>
       <c r="C338" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D338">
         <v>11.9</v>
@@ -7314,7 +7317,7 @@
         <v>9</v>
       </c>
       <c r="C339" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D339">
         <v>11.8</v>
@@ -7334,7 +7337,7 @@
         <v>9</v>
       </c>
       <c r="C340" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D340">
         <v>4</v>
@@ -7354,7 +7357,7 @@
         <v>9</v>
       </c>
       <c r="C341" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D341">
         <v>4</v>
@@ -7374,7 +7377,7 @@
         <v>10</v>
       </c>
       <c r="C342" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D342">
         <v>2.6</v>
@@ -7394,7 +7397,7 @@
         <v>10</v>
       </c>
       <c r="C343" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D343">
         <v>2.6</v>
@@ -7414,7 +7417,7 @@
         <v>10</v>
       </c>
       <c r="C344" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D344">
         <v>6.6</v>
@@ -7434,7 +7437,7 @@
         <v>10</v>
       </c>
       <c r="C345" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D345">
         <v>6.7</v>
@@ -7454,7 +7457,7 @@
         <v>10</v>
       </c>
       <c r="C346" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D346">
         <v>9.5</v>
@@ -7474,7 +7477,7 @@
         <v>10</v>
       </c>
       <c r="C347" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D347">
         <v>9.5</v>
@@ -7494,7 +7497,7 @@
         <v>10</v>
       </c>
       <c r="C348" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D348">
         <v>11.9</v>
@@ -7514,7 +7517,7 @@
         <v>10</v>
       </c>
       <c r="C349" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D349">
         <v>11.8</v>
@@ -7534,7 +7537,7 @@
         <v>10</v>
       </c>
       <c r="C350" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D350">
         <v>4</v>
@@ -7554,7 +7557,7 @@
         <v>10</v>
       </c>
       <c r="C351" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D351">
         <v>4</v>
@@ -7574,7 +7577,7 @@
         <v>31</v>
       </c>
       <c r="C352" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D352">
         <v>2.6</v>
@@ -7594,7 +7597,7 @@
         <v>31</v>
       </c>
       <c r="C353" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D353">
         <v>2.6</v>
@@ -7614,7 +7617,7 @@
         <v>31</v>
       </c>
       <c r="C354" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D354">
         <v>6.6</v>
@@ -7634,7 +7637,7 @@
         <v>31</v>
       </c>
       <c r="C355" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D355">
         <v>6.7</v>
@@ -7654,7 +7657,7 @@
         <v>31</v>
       </c>
       <c r="C356" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D356">
         <v>9.5</v>
@@ -7674,7 +7677,7 @@
         <v>31</v>
       </c>
       <c r="C357" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D357">
         <v>9.5</v>
@@ -7694,7 +7697,7 @@
         <v>31</v>
       </c>
       <c r="C358" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D358">
         <v>11.9</v>
@@ -7714,7 +7717,7 @@
         <v>31</v>
       </c>
       <c r="C359" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D359">
         <v>11.8</v>
@@ -7734,7 +7737,7 @@
         <v>31</v>
       </c>
       <c r="C360" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D360">
         <v>4</v>
@@ -7754,7 +7757,7 @@
         <v>31</v>
       </c>
       <c r="C361" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D361">
         <v>4</v>
@@ -7774,7 +7777,7 @@
         <v>32</v>
       </c>
       <c r="C362" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D362">
         <v>2.6</v>
@@ -7794,7 +7797,7 @@
         <v>32</v>
       </c>
       <c r="C363" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D363">
         <v>2.6</v>
@@ -7814,7 +7817,7 @@
         <v>32</v>
       </c>
       <c r="C364" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D364">
         <v>6.6</v>
@@ -7834,7 +7837,7 @@
         <v>32</v>
       </c>
       <c r="C365" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D365">
         <v>6.7</v>
@@ -7854,7 +7857,7 @@
         <v>32</v>
       </c>
       <c r="C366" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D366">
         <v>9.5</v>
@@ -7874,7 +7877,7 @@
         <v>32</v>
       </c>
       <c r="C367" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D367">
         <v>9.5</v>
@@ -7894,7 +7897,7 @@
         <v>32</v>
       </c>
       <c r="C368" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D368">
         <v>11.9</v>
@@ -7914,7 +7917,7 @@
         <v>32</v>
       </c>
       <c r="C369" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D369">
         <v>11.8</v>
@@ -7934,7 +7937,7 @@
         <v>32</v>
       </c>
       <c r="C370" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D370">
         <v>4</v>
@@ -7954,7 +7957,7 @@
         <v>32</v>
       </c>
       <c r="C371" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D371">
         <v>4</v>
@@ -7974,7 +7977,7 @@
         <v>14</v>
       </c>
       <c r="C372" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D372">
         <v>2.6</v>
@@ -7994,7 +7997,7 @@
         <v>14</v>
       </c>
       <c r="C373" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D373">
         <v>2.6</v>
@@ -8014,7 +8017,7 @@
         <v>14</v>
       </c>
       <c r="C374" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D374">
         <v>6.6</v>
@@ -8034,7 +8037,7 @@
         <v>14</v>
       </c>
       <c r="C375" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D375">
         <v>6.7</v>
@@ -8054,7 +8057,7 @@
         <v>14</v>
       </c>
       <c r="C376" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D376">
         <v>9.5</v>
@@ -8074,7 +8077,7 @@
         <v>14</v>
       </c>
       <c r="C377" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D377">
         <v>9.5</v>
@@ -8094,7 +8097,7 @@
         <v>14</v>
       </c>
       <c r="C378" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D378">
         <v>11.9</v>
@@ -8114,7 +8117,7 @@
         <v>14</v>
       </c>
       <c r="C379" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D379">
         <v>11.8</v>
@@ -8134,7 +8137,7 @@
         <v>14</v>
       </c>
       <c r="C380" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D380">
         <v>4</v>
@@ -8154,7 +8157,7 @@
         <v>14</v>
       </c>
       <c r="C381" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D381">
         <v>4</v>
@@ -8174,7 +8177,7 @@
         <v>15</v>
       </c>
       <c r="C382" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D382">
         <v>2.6</v>
@@ -8194,7 +8197,7 @@
         <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D383">
         <v>2.6</v>
@@ -8214,7 +8217,7 @@
         <v>15</v>
       </c>
       <c r="C384" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D384">
         <v>6.6</v>
@@ -8234,7 +8237,7 @@
         <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D385">
         <v>6.7</v>
@@ -8254,7 +8257,7 @@
         <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D386">
         <v>9.5</v>
@@ -8274,7 +8277,7 @@
         <v>15</v>
       </c>
       <c r="C387" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D387">
         <v>9.5</v>
@@ -8294,7 +8297,7 @@
         <v>15</v>
       </c>
       <c r="C388" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D388">
         <v>11.9</v>
@@ -8314,7 +8317,7 @@
         <v>15</v>
       </c>
       <c r="C389" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D389">
         <v>11.8</v>
@@ -8334,7 +8337,7 @@
         <v>15</v>
       </c>
       <c r="C390" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D390">
         <v>4</v>
@@ -8354,7 +8357,7 @@
         <v>15</v>
       </c>
       <c r="C391" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D391">
         <v>4</v>
@@ -8374,7 +8377,7 @@
         <v>33</v>
       </c>
       <c r="C392" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D392">
         <v>2.6</v>
@@ -8394,7 +8397,7 @@
         <v>33</v>
       </c>
       <c r="C393" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D393">
         <v>2.6</v>
@@ -8414,7 +8417,7 @@
         <v>33</v>
       </c>
       <c r="C394" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D394">
         <v>6.6</v>
@@ -8434,7 +8437,7 @@
         <v>33</v>
       </c>
       <c r="C395" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D395">
         <v>6.7</v>
@@ -8454,7 +8457,7 @@
         <v>33</v>
       </c>
       <c r="C396" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D396">
         <v>9.5</v>
@@ -8474,7 +8477,7 @@
         <v>33</v>
       </c>
       <c r="C397" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D397">
         <v>9.5</v>
@@ -8494,7 +8497,7 @@
         <v>33</v>
       </c>
       <c r="C398" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D398">
         <v>11.9</v>
@@ -8514,7 +8517,7 @@
         <v>33</v>
       </c>
       <c r="C399" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D399">
         <v>11.8</v>
@@ -8534,7 +8537,7 @@
         <v>33</v>
       </c>
       <c r="C400" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D400">
         <v>4</v>
@@ -8554,7 +8557,7 @@
         <v>33</v>
       </c>
       <c r="C401" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D401">
         <v>4</v>
@@ -8574,7 +8577,7 @@
         <v>34</v>
       </c>
       <c r="C402" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D402">
         <v>2.6</v>
@@ -8594,7 +8597,7 @@
         <v>34</v>
       </c>
       <c r="C403" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D403">
         <v>2.6</v>
@@ -8614,7 +8617,7 @@
         <v>34</v>
       </c>
       <c r="C404" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D404">
         <v>6.6</v>
@@ -8634,7 +8637,7 @@
         <v>34</v>
       </c>
       <c r="C405" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D405">
         <v>6.7</v>
@@ -8654,7 +8657,7 @@
         <v>34</v>
       </c>
       <c r="C406" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D406">
         <v>9.5</v>
@@ -8674,7 +8677,7 @@
         <v>34</v>
       </c>
       <c r="C407" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D407">
         <v>9.5</v>
@@ -8694,7 +8697,7 @@
         <v>34</v>
       </c>
       <c r="C408" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D408">
         <v>11.9</v>
@@ -8714,7 +8717,7 @@
         <v>34</v>
       </c>
       <c r="C409" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D409">
         <v>11.8</v>
@@ -8734,7 +8737,7 @@
         <v>34</v>
       </c>
       <c r="C410" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D410">
         <v>4</v>
@@ -8754,7 +8757,7 @@
         <v>34</v>
       </c>
       <c r="C411" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D411">
         <v>4</v>
@@ -8774,7 +8777,7 @@
         <v>35</v>
       </c>
       <c r="C412" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D412">
         <v>2.6</v>
@@ -8794,7 +8797,7 @@
         <v>35</v>
       </c>
       <c r="C413" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D413">
         <v>2.6</v>
@@ -8814,7 +8817,7 @@
         <v>35</v>
       </c>
       <c r="C414" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D414">
         <v>6.6</v>
@@ -8834,7 +8837,7 @@
         <v>35</v>
       </c>
       <c r="C415" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D415">
         <v>6.7</v>
@@ -8854,7 +8857,7 @@
         <v>35</v>
       </c>
       <c r="C416" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D416">
         <v>9.5</v>
@@ -8874,7 +8877,7 @@
         <v>35</v>
       </c>
       <c r="C417" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D417">
         <v>9.5</v>
@@ -8894,7 +8897,7 @@
         <v>35</v>
       </c>
       <c r="C418" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D418">
         <v>11.9</v>
@@ -8914,7 +8917,7 @@
         <v>35</v>
       </c>
       <c r="C419" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D419">
         <v>11.8</v>
@@ -8934,7 +8937,7 @@
         <v>35</v>
       </c>
       <c r="C420" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D420">
         <v>2.1</v>
@@ -8954,7 +8957,7 @@
         <v>35</v>
       </c>
       <c r="C421" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D421">
         <v>2</v>
@@ -8974,7 +8977,7 @@
         <v>35</v>
       </c>
       <c r="C422" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D422">
         <v>4</v>
@@ -8994,7 +8997,7 @@
         <v>35</v>
       </c>
       <c r="C423" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D423">
         <v>4</v>
@@ -9014,7 +9017,7 @@
         <v>36</v>
       </c>
       <c r="C424" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D424">
         <v>2.6</v>
@@ -9034,7 +9037,7 @@
         <v>36</v>
       </c>
       <c r="C425" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D425">
         <v>2.6</v>
@@ -9054,7 +9057,7 @@
         <v>36</v>
       </c>
       <c r="C426" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D426">
         <v>6.6</v>
@@ -9074,7 +9077,7 @@
         <v>36</v>
       </c>
       <c r="C427" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D427">
         <v>6.7</v>
@@ -9094,7 +9097,7 @@
         <v>36</v>
       </c>
       <c r="C428" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D428">
         <v>9.5</v>
@@ -9114,7 +9117,7 @@
         <v>36</v>
       </c>
       <c r="C429" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D429">
         <v>9.5</v>
@@ -9134,7 +9137,7 @@
         <v>36</v>
       </c>
       <c r="C430" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D430">
         <v>11.9</v>
@@ -9154,7 +9157,7 @@
         <v>36</v>
       </c>
       <c r="C431" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D431">
         <v>11.8</v>
@@ -9174,7 +9177,7 @@
         <v>36</v>
       </c>
       <c r="C432" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D432">
         <v>2.1</v>
@@ -9194,7 +9197,7 @@
         <v>36</v>
       </c>
       <c r="C433" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D433">
         <v>2</v>
@@ -9214,7 +9217,7 @@
         <v>36</v>
       </c>
       <c r="C434" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D434">
         <v>4</v>
@@ -9234,7 +9237,7 @@
         <v>36</v>
       </c>
       <c r="C435" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D435">
         <v>4</v>
@@ -9254,7 +9257,7 @@
         <v>37</v>
       </c>
       <c r="C436" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D436">
         <v>2.6</v>
@@ -9274,7 +9277,7 @@
         <v>37</v>
       </c>
       <c r="C437" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D437">
         <v>2.6</v>
@@ -9294,7 +9297,7 @@
         <v>37</v>
       </c>
       <c r="C438" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D438">
         <v>6.6</v>
@@ -9314,7 +9317,7 @@
         <v>37</v>
       </c>
       <c r="C439" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D439">
         <v>6.7</v>
@@ -9334,7 +9337,7 @@
         <v>37</v>
       </c>
       <c r="C440" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D440">
         <v>9.5</v>
@@ -9354,7 +9357,7 @@
         <v>37</v>
       </c>
       <c r="C441" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D441">
         <v>9.5</v>
@@ -9374,7 +9377,7 @@
         <v>37</v>
       </c>
       <c r="C442" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D442">
         <v>11.9</v>
@@ -9394,7 +9397,7 @@
         <v>37</v>
       </c>
       <c r="C443" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D443">
         <v>11.8</v>
@@ -9414,7 +9417,7 @@
         <v>37</v>
       </c>
       <c r="C444" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D444">
         <v>2.1</v>
@@ -9434,7 +9437,7 @@
         <v>37</v>
       </c>
       <c r="C445" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D445">
         <v>2</v>
@@ -9454,7 +9457,7 @@
         <v>37</v>
       </c>
       <c r="C446" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D446">
         <v>4</v>
@@ -9474,7 +9477,7 @@
         <v>37</v>
       </c>
       <c r="C447" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D447">
         <v>4</v>
@@ -9494,7 +9497,7 @@
         <v>38</v>
       </c>
       <c r="C448" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D448">
         <v>2.6</v>
@@ -9514,7 +9517,7 @@
         <v>38</v>
       </c>
       <c r="C449" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D449">
         <v>2.6</v>
@@ -9534,7 +9537,7 @@
         <v>38</v>
       </c>
       <c r="C450" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D450">
         <v>6.6</v>
@@ -9554,7 +9557,7 @@
         <v>38</v>
       </c>
       <c r="C451" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D451">
         <v>6.7</v>
@@ -9574,7 +9577,7 @@
         <v>38</v>
       </c>
       <c r="C452" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D452">
         <v>9.5</v>
@@ -9594,7 +9597,7 @@
         <v>38</v>
       </c>
       <c r="C453" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D453">
         <v>9.5</v>
@@ -9614,7 +9617,7 @@
         <v>38</v>
       </c>
       <c r="C454" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D454">
         <v>11.9</v>
@@ -9634,7 +9637,7 @@
         <v>38</v>
       </c>
       <c r="C455" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D455">
         <v>11.8</v>
@@ -9654,7 +9657,7 @@
         <v>38</v>
       </c>
       <c r="C456" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D456">
         <v>2.1</v>
@@ -9674,7 +9677,7 @@
         <v>38</v>
       </c>
       <c r="C457" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D457">
         <v>2</v>
@@ -9694,7 +9697,7 @@
         <v>38</v>
       </c>
       <c r="C458" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D458">
         <v>4</v>
@@ -9714,7 +9717,7 @@
         <v>38</v>
       </c>
       <c r="C459" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D459">
         <v>4</v>
@@ -9734,7 +9737,7 @@
         <v>39</v>
       </c>
       <c r="C460" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D460">
         <v>2.6</v>
@@ -9754,7 +9757,7 @@
         <v>39</v>
       </c>
       <c r="C461" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D461">
         <v>2.6</v>
@@ -9774,7 +9777,7 @@
         <v>39</v>
       </c>
       <c r="C462" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D462">
         <v>6.6</v>
@@ -9794,7 +9797,7 @@
         <v>39</v>
       </c>
       <c r="C463" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D463">
         <v>6.7</v>
@@ -9814,7 +9817,7 @@
         <v>39</v>
       </c>
       <c r="C464" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D464">
         <v>9.5</v>
@@ -9834,7 +9837,7 @@
         <v>39</v>
       </c>
       <c r="C465" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D465">
         <v>9.5</v>
@@ -9854,7 +9857,7 @@
         <v>39</v>
       </c>
       <c r="C466" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D466">
         <v>11.9</v>
@@ -9874,7 +9877,7 @@
         <v>39</v>
       </c>
       <c r="C467" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D467">
         <v>11.8</v>
@@ -9894,7 +9897,7 @@
         <v>39</v>
       </c>
       <c r="C468" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D468">
         <v>2.1</v>
@@ -9914,7 +9917,7 @@
         <v>39</v>
       </c>
       <c r="C469" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D469">
         <v>2</v>
@@ -9934,7 +9937,7 @@
         <v>39</v>
       </c>
       <c r="C470" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D470">
         <v>4</v>
@@ -9954,7 +9957,7 @@
         <v>39</v>
       </c>
       <c r="C471" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D471">
         <v>4</v>
@@ -9974,7 +9977,7 @@
         <v>40</v>
       </c>
       <c r="C472" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D472">
         <v>2.6</v>
@@ -9994,7 +9997,7 @@
         <v>40</v>
       </c>
       <c r="C473" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D473">
         <v>2.6</v>
@@ -10014,7 +10017,7 @@
         <v>40</v>
       </c>
       <c r="C474" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D474">
         <v>6.6</v>
@@ -10034,7 +10037,7 @@
         <v>40</v>
       </c>
       <c r="C475" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D475">
         <v>6.7</v>
@@ -10054,7 +10057,7 @@
         <v>40</v>
       </c>
       <c r="C476" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D476">
         <v>9.5</v>
@@ -10074,7 +10077,7 @@
         <v>40</v>
       </c>
       <c r="C477" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D477">
         <v>9.5</v>
@@ -10094,7 +10097,7 @@
         <v>40</v>
       </c>
       <c r="C478" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D478">
         <v>11.9</v>
@@ -10114,7 +10117,7 @@
         <v>40</v>
       </c>
       <c r="C479" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D479">
         <v>11.8</v>
@@ -10134,7 +10137,7 @@
         <v>40</v>
       </c>
       <c r="C480" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D480">
         <v>2.1</v>
@@ -10154,7 +10157,7 @@
         <v>40</v>
       </c>
       <c r="C481" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D481">
         <v>2</v>
@@ -10174,7 +10177,7 @@
         <v>40</v>
       </c>
       <c r="C482" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D482">
         <v>4</v>
@@ -10194,7 +10197,7 @@
         <v>40</v>
       </c>
       <c r="C483" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D483">
         <v>4</v>
@@ -10214,7 +10217,7 @@
         <v>41</v>
       </c>
       <c r="C484" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D484">
         <v>2.6</v>
@@ -10234,7 +10237,7 @@
         <v>41</v>
       </c>
       <c r="C485" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D485">
         <v>2.6</v>
@@ -10254,7 +10257,7 @@
         <v>41</v>
       </c>
       <c r="C486" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D486">
         <v>6.6</v>
@@ -10274,7 +10277,7 @@
         <v>41</v>
       </c>
       <c r="C487" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D487">
         <v>6.7</v>
@@ -10294,7 +10297,7 @@
         <v>41</v>
       </c>
       <c r="C488" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D488">
         <v>9.5</v>
@@ -10314,7 +10317,7 @@
         <v>41</v>
       </c>
       <c r="C489" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D489">
         <v>9.5</v>
@@ -10334,7 +10337,7 @@
         <v>41</v>
       </c>
       <c r="C490" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D490">
         <v>11.9</v>
@@ -10354,7 +10357,7 @@
         <v>41</v>
       </c>
       <c r="C491" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D491">
         <v>11.8</v>
@@ -10374,7 +10377,7 @@
         <v>41</v>
       </c>
       <c r="C492" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D492">
         <v>2.1</v>
@@ -10394,7 +10397,7 @@
         <v>41</v>
       </c>
       <c r="C493" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D493">
         <v>2</v>
@@ -10414,7 +10417,7 @@
         <v>41</v>
       </c>
       <c r="C494" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D494">
         <v>4</v>
@@ -10434,7 +10437,7 @@
         <v>41</v>
       </c>
       <c r="C495" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D495">
         <v>4</v>
@@ -10454,7 +10457,7 @@
         <v>42</v>
       </c>
       <c r="C496" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D496">
         <v>2.6</v>
@@ -10474,7 +10477,7 @@
         <v>42</v>
       </c>
       <c r="C497" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D497">
         <v>2.6</v>
@@ -10494,7 +10497,7 @@
         <v>42</v>
       </c>
       <c r="C498" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D498">
         <v>6.6</v>
@@ -10514,7 +10517,7 @@
         <v>42</v>
       </c>
       <c r="C499" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D499">
         <v>6.7</v>
@@ -10534,7 +10537,7 @@
         <v>42</v>
       </c>
       <c r="C500" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D500">
         <v>9.5</v>
@@ -10554,7 +10557,7 @@
         <v>42</v>
       </c>
       <c r="C501" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D501">
         <v>9.5</v>
@@ -10574,7 +10577,7 @@
         <v>42</v>
       </c>
       <c r="C502" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D502">
         <v>11.9</v>
@@ -10594,7 +10597,7 @@
         <v>42</v>
       </c>
       <c r="C503" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D503">
         <v>11.8</v>
@@ -10614,7 +10617,7 @@
         <v>42</v>
       </c>
       <c r="C504" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D504">
         <v>2.1</v>
@@ -10634,7 +10637,7 @@
         <v>42</v>
       </c>
       <c r="C505" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D505">
         <v>2</v>
@@ -10654,7 +10657,7 @@
         <v>42</v>
       </c>
       <c r="C506" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D506">
         <v>4</v>
@@ -10674,7 +10677,7 @@
         <v>42</v>
       </c>
       <c r="C507" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D507">
         <v>4</v>
@@ -10684,6 +10687,246 @@
       </c>
       <c r="F507">
         <v>319</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B508" t="s">
+        <v>43</v>
+      </c>
+      <c r="C508" t="s">
+        <v>44</v>
+      </c>
+      <c r="D508">
+        <v>2.6</v>
+      </c>
+      <c r="E508">
+        <v>233</v>
+      </c>
+      <c r="F508">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B509" t="s">
+        <v>43</v>
+      </c>
+      <c r="C509" t="s">
+        <v>45</v>
+      </c>
+      <c r="D509">
+        <v>2.6</v>
+      </c>
+      <c r="E509">
+        <v>278</v>
+      </c>
+      <c r="F509">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B510" t="s">
+        <v>43</v>
+      </c>
+      <c r="C510" t="s">
+        <v>46</v>
+      </c>
+      <c r="D510">
+        <v>6.6</v>
+      </c>
+      <c r="E510">
+        <v>629</v>
+      </c>
+      <c r="F510">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B511" t="s">
+        <v>43</v>
+      </c>
+      <c r="C511" t="s">
+        <v>47</v>
+      </c>
+      <c r="D511">
+        <v>6.7</v>
+      </c>
+      <c r="E511">
+        <v>626</v>
+      </c>
+      <c r="F511">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B512" t="s">
+        <v>43</v>
+      </c>
+      <c r="C512" t="s">
+        <v>48</v>
+      </c>
+      <c r="D512">
+        <v>9.5</v>
+      </c>
+      <c r="E512">
+        <v>896</v>
+      </c>
+      <c r="F512">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B513" t="s">
+        <v>43</v>
+      </c>
+      <c r="C513" t="s">
+        <v>49</v>
+      </c>
+      <c r="D513">
+        <v>9.5</v>
+      </c>
+      <c r="E513">
+        <v>969</v>
+      </c>
+      <c r="F513">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B514" t="s">
+        <v>43</v>
+      </c>
+      <c r="C514" t="s">
+        <v>50</v>
+      </c>
+      <c r="D514">
+        <v>11.9</v>
+      </c>
+      <c r="E514">
+        <v>1149</v>
+      </c>
+      <c r="F514">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B515" t="s">
+        <v>43</v>
+      </c>
+      <c r="C515" t="s">
+        <v>51</v>
+      </c>
+      <c r="D515">
+        <v>11.8</v>
+      </c>
+      <c r="E515">
+        <v>1188</v>
+      </c>
+      <c r="F515">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B516" t="s">
+        <v>43</v>
+      </c>
+      <c r="C516" t="s">
+        <v>54</v>
+      </c>
+      <c r="D516">
+        <v>2.1</v>
+      </c>
+      <c r="E516">
+        <v>184</v>
+      </c>
+      <c r="F516">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B517" t="s">
+        <v>43</v>
+      </c>
+      <c r="C517" t="s">
+        <v>55</v>
+      </c>
+      <c r="D517">
+        <v>2</v>
+      </c>
+      <c r="E517">
+        <v>195</v>
+      </c>
+      <c r="F517">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B518" t="s">
+        <v>43</v>
+      </c>
+      <c r="C518" t="s">
+        <v>52</v>
+      </c>
+      <c r="D518">
+        <v>4</v>
+      </c>
+      <c r="E518">
+        <v>377</v>
+      </c>
+      <c r="F518">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B519" t="s">
+        <v>43</v>
+      </c>
+      <c r="C519" t="s">
+        <v>53</v>
+      </c>
+      <c r="D519">
+        <v>4</v>
+      </c>
+      <c r="E519">
+        <v>338</v>
+      </c>
+      <c r="F519">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
